--- a/exercises/exercises02.xlsx
+++ b/exercises/exercises02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ad83bda99cce0ca/Github/ELE-3915/exercises/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3691" documentId="8_{29B8196C-0F94-4E63-9C97-551F1F758BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54CAFD0C-00B8-4375-9C84-5E35F3CD0F98}"/>
+  <xr:revisionPtr revIDLastSave="3696" documentId="8_{29B8196C-0F94-4E63-9C97-551F1F758BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78E1B3FB-6AC7-4339-8600-FE85D74B8CBB}"/>
   <bookViews>
-    <workbookView xWindow="-37590" yWindow="-120" windowWidth="37710" windowHeight="21840" tabRatio="965" firstSheet="1" activeTab="1" xr2:uid="{58F8946E-589F-43AA-8127-245E86DA602D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="965" firstSheet="1" activeTab="4" xr2:uid="{58F8946E-589F-43AA-8127-245E86DA602D}"/>
   </bookViews>
   <sheets>
     <sheet name="Shirt sales" sheetId="4" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2051" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2053" uniqueCount="800">
   <si>
     <t>Male</t>
   </si>
@@ -2267,21 +2267,6 @@
   </si>
   <si>
     <t>You can’t connect the dots looking forward; you can only connect them looking backwards. So you have to trust that the dots will somehow connect in your future.</t>
-  </si>
-  <si>
-    <t>Write a formula that counts how many times the</t>
-  </si>
-  <si>
-    <t>word in the orange box appears in a text. Use the</t>
-  </si>
-  <si>
-    <t>formula to count the number of words in the</t>
-  </si>
-  <si>
-    <t>to see how I made a function counting the number of</t>
-  </si>
-  <si>
-    <t>words.)</t>
   </si>
   <si>
     <t>Exercise3</t>
@@ -2504,32 +2489,6 @@
     <t>Remember to use =&gt; and &lt;= for inequalities!</t>
   </si>
   <si>
-    <r>
-      <t>sentences of Table 2. (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Hint:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Look at the lecture notes</t>
-    </r>
-  </si>
-  <si>
     <t>You need to subsititute every instance of the word for</t>
   </si>
   <si>
@@ -2570,6 +2529,30 @@
   </si>
   <si>
     <t>b) What is the total sales of salespeople with first name ending in "e" with shirt size "S" or smaller?</t>
+  </si>
+  <si>
+    <t>Write a formula that counts how many times the word</t>
+  </si>
+  <si>
+    <t>in the orange box appears in a text. Use the formula to</t>
+  </si>
+  <si>
+    <t>count the number of words in the sentences of Table</t>
+  </si>
+  <si>
+    <t>2. The formula does not have to work for text starting</t>
+  </si>
+  <si>
+    <t>with the word ("Of course I love television!") or text</t>
+  </si>
+  <si>
+    <t>with adjacent instances of the word ("of of of") (Hint:</t>
+  </si>
+  <si>
+    <t>Look at the lecture notes to see how I made a function</t>
+  </si>
+  <si>
+    <t>counting the number of words.)</t>
   </si>
 </sst>
 </file>
@@ -2948,6 +2931,12 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="11"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="6"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2955,12 +2944,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -10900,7 +10883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC0C6B7-48AE-4BCD-ADF0-20CF516D0AD5}">
   <dimension ref="A1:J214"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
@@ -10919,29 +10902,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="25" t="s">
         <v>448</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="24" t="s">
         <v>456</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="H2" s="27" t="s">
+      <c r="F2" s="24"/>
+      <c r="H2" s="24" t="s">
         <v>457</v>
       </c>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -11078,7 +11061,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -11143,37 +11126,37 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="25" t="s">
         <v>461</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="E27" s="25" t="s">
-        <v>747</v>
-      </c>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
+      <c r="E27" s="27" t="s">
+        <v>742</v>
+      </c>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -11195,7 +11178,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -11214,7 +11197,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -11233,7 +11216,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -11252,7 +11235,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -11271,7 +11254,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -11290,7 +11273,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -11309,7 +11292,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -11371,41 +11354,41 @@
       <c r="I40" s="9"/>
     </row>
     <row r="116" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="28" t="s">
+      <c r="A116" s="25" t="s">
         <v>472</v>
       </c>
-      <c r="B116" s="28"/>
-      <c r="C116" s="28"/>
-      <c r="D116" s="28"/>
-      <c r="E116" s="28"/>
-      <c r="F116" s="28"/>
-      <c r="G116" s="28"/>
-      <c r="H116" s="28"/>
-      <c r="I116" s="28"/>
-      <c r="J116" s="28"/>
+      <c r="B116" s="25"/>
+      <c r="C116" s="25"/>
+      <c r="D116" s="25"/>
+      <c r="E116" s="25"/>
+      <c r="F116" s="25"/>
+      <c r="G116" s="25"/>
+      <c r="H116" s="25"/>
+      <c r="I116" s="25"/>
+      <c r="J116" s="25"/>
     </row>
     <row r="117" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="118" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
-      <c r="E118" s="25" t="s">
-        <v>748</v>
-      </c>
-      <c r="F118" s="25"/>
-      <c r="G118" s="25"/>
-      <c r="H118" s="25"/>
+      <c r="E118" s="27" t="s">
+        <v>743</v>
+      </c>
+      <c r="F118" s="27"/>
+      <c r="G118" s="27"/>
+      <c r="H118" s="27"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="E119" s="12" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="F119" s="12" t="s">
         <v>436</v>
@@ -11414,12 +11397,12 @@
         <v>437</v>
       </c>
       <c r="H119" s="12" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -11435,7 +11418,7 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -11451,7 +11434,7 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -11467,7 +11450,7 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -11483,7 +11466,7 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -11543,7 +11526,7 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E130" s="22" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -11552,18 +11535,18 @@
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E132" s="24" t="s">
-        <v>735</v>
-      </c>
-      <c r="F132" s="24"/>
-      <c r="G132" s="24"/>
+      <c r="E132" s="26" t="s">
+        <v>730</v>
+      </c>
+      <c r="F132" s="26"/>
+      <c r="G132" s="26"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E133" s="22" t="s">
         <v>439</v>
       </c>
       <c r="G133" s="22" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
@@ -11575,18 +11558,18 @@
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E135" s="24" t="s">
-        <v>734</v>
-      </c>
-      <c r="F135" s="24"/>
-      <c r="G135" s="24"/>
+      <c r="E135" s="26" t="s">
+        <v>729</v>
+      </c>
+      <c r="F135" s="26"/>
+      <c r="G135" s="26"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E136" s="22" t="s">
         <v>439</v>
       </c>
       <c r="G136" s="22" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
@@ -11598,27 +11581,27 @@
       </c>
     </row>
     <row r="140" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="28" t="s">
+      <c r="A140" s="25" t="s">
         <v>473</v>
       </c>
-      <c r="B140" s="28"/>
-      <c r="C140" s="28"/>
-      <c r="D140" s="28"/>
-      <c r="E140" s="28"/>
-      <c r="F140" s="28"/>
-      <c r="G140" s="28"/>
-      <c r="H140" s="28"/>
-      <c r="I140" s="28"/>
-      <c r="J140" s="28"/>
+      <c r="B140" s="25"/>
+      <c r="C140" s="25"/>
+      <c r="D140" s="25"/>
+      <c r="E140" s="25"/>
+      <c r="F140" s="25"/>
+      <c r="G140" s="25"/>
+      <c r="H140" s="25"/>
+      <c r="I140" s="25"/>
+      <c r="J140" s="25"/>
     </row>
     <row r="141" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="142" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E142" s="26" t="s">
-        <v>739</v>
-      </c>
-      <c r="F142" s="26"/>
-      <c r="G142" s="26"/>
-      <c r="H142" s="26"/>
+      <c r="E142" s="28" t="s">
+        <v>734</v>
+      </c>
+      <c r="F142" s="28"/>
+      <c r="G142" s="28"/>
+      <c r="H142" s="28"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E143" s="12" t="s">
@@ -12583,6 +12566,7 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="E142:H142"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="A1:J1"/>
@@ -12593,7 +12577,6 @@
     <mergeCell ref="E135:G135"/>
     <mergeCell ref="E118:H118"/>
     <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E142:H142"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -12619,27 +12602,27 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="25" t="s">
         <v>448</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="27" t="s">
         <v>462</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16">
@@ -12765,16 +12748,16 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="25" t="s">
         <v>461</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12813,12 +12796,12 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -12828,15 +12811,15 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="B22" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="B23" t="s">
         <v>471</v>
@@ -12844,20 +12827,20 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="25" t="s">
         <v>472</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12872,16 +12855,16 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="25" t="s">
         <v>473</v>
       </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12896,16 +12879,16 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="25" t="s">
         <v>474</v>
       </c>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12973,7 +12956,7 @@
         <v>9</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -13196,7 +13179,7 @@
         <v>275.74</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -13239,7 +13222,7 @@
         <v>619.99</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -13282,7 +13265,7 @@
         <v>820.11</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -13325,7 +13308,7 @@
         <v>530.17999999999995</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -13368,7 +13351,7 @@
         <v>288.2</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -13431,7 +13414,7 @@
         <v>756.29</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -13474,7 +13457,7 @@
         <v>409.45</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -13517,7 +13500,7 @@
         <v>383.62</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -13560,7 +13543,7 @@
         <v>894.16</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -13603,7 +13586,7 @@
         <v>215.38</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -13646,7 +13629,7 @@
         <v>679.21</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -17018,10 +17001,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF3F554-9FA9-4B23-99A2-5E258CD0F3F7}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17034,26 +17017,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="25" t="s">
         <v>448</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="24" t="s">
         <v>456</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -17163,19 +17146,19 @@
       <c r="C16" s="9"/>
     </row>
     <row r="18" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="25" t="s">
         <v>461</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>719</v>
+        <v>792</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>711</v>
@@ -17186,26 +17169,26 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>720</v>
+        <v>793</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="C22" s="25" t="s">
+        <v>794</v>
+      </c>
+      <c r="C22" s="27" t="s">
         <v>457</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>783</v>
+      <c r="A23" s="1" t="s">
+        <v>795</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>713</v>
@@ -17216,7 +17199,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>722</v>
+        <v>796</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -17227,7 +17210,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>723</v>
+        <v>797</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -17237,6 +17220,9 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>798</v>
+      </c>
       <c r="C26">
         <v>2</v>
       </c>
@@ -17245,146 +17231,153 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>784</v>
+      <c r="A27" s="1" t="s">
+        <v>799</v>
       </c>
       <c r="E27" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>785</v>
-      </c>
       <c r="E28" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="28" t="s">
-        <v>724</v>
-      </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>747</v>
-      </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>750</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>751</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>480</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="C34" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="C35" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="25" t="s">
+        <v>719</v>
+      </c>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="C36" t="s">
-        <v>760</v>
-      </c>
+        <v>744</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>742</v>
+      </c>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="C37" t="s">
-        <v>761</v>
+        <v>747</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>745</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>746</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="C38" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="C39" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>723</v>
+      </c>
       <c r="C40" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
-        <v>788</v>
+      <c r="A41" s="1" t="s">
+        <v>724</v>
       </c>
       <c r="C41" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
-        <v>789</v>
+      <c r="A42" s="1" t="s">
+        <v>725</v>
       </c>
       <c r="C42" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
-        <v>790</v>
+      <c r="A43" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="C43" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="C45" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>783</v>
+      </c>
+      <c r="C46" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>784</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="C36:F36"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="C32:F32"/>
     <mergeCell ref="C22:F22"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>

--- a/exercises/exercises02.xlsx
+++ b/exercises/exercises02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ad83bda99cce0ca/Github/ELE-3915/exercises/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4059" documentId="8_{29B8196C-0F94-4E63-9C97-551F1F758BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64B7DF1A-4BBB-4F59-885B-5F9300E962D6}"/>
+  <xr:revisionPtr revIDLastSave="4133" documentId="8_{29B8196C-0F94-4E63-9C97-551F1F758BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B87C2DB7-4CD1-4CA4-B0F0-E6C5ADE0582D}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="21840" tabRatio="965" firstSheet="1" activeTab="1" xr2:uid="{58F8946E-589F-43AA-8127-245E86DA602D}"/>
+    <workbookView xWindow="1290" yWindow="-110" windowWidth="18020" windowHeight="11020" tabRatio="965" firstSheet="1" activeTab="1" xr2:uid="{58F8946E-589F-43AA-8127-245E86DA602D}"/>
   </bookViews>
   <sheets>
     <sheet name="Shirt sales" sheetId="4" r:id="rId1"/>
@@ -3352,13 +3352,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>64943</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>181841</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>4330</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>51955</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4649,7 +4649,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4663,24 +4663,24 @@
       <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" customWidth="1"/>
-    <col min="9" max="10" width="13.7109375" customWidth="1"/>
-    <col min="11" max="11" width="59.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" customWidth="1"/>
+    <col min="7" max="7" width="11.54296875" customWidth="1"/>
+    <col min="8" max="8" width="10.81640625" customWidth="1"/>
+    <col min="9" max="10" width="13.7265625" customWidth="1"/>
+    <col min="11" max="11" width="59.453125" customWidth="1"/>
     <col min="12" max="12" width="56" customWidth="1"/>
     <col min="14" max="14" width="17" customWidth="1"/>
-    <col min="15" max="15" width="32.7109375" customWidth="1"/>
+    <col min="15" max="15" width="32.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="20" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>-420.03925284244724</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -4811,7 +4811,7 @@
         <v>48.347055888223551</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -4843,7 +4843,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>33.260612671575309</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -4907,7 +4907,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>-163.84722706662018</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -4974,7 +4974,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -5006,7 +5006,7 @@
         <v>-17.092237949856596</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>-134.96047000797853</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>81.196470910821148</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -5175,7 +5175,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>-1.5071148992208379</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>-31.534573163831165</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -5341,7 +5341,7 @@
         <v>-188.44205412907704</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -5373,7 +5373,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>91.534647786798544</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -5469,7 +5469,7 @@
         <v>-3.7978725191994065</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>63</v>
       </c>
@@ -5501,7 +5501,7 @@
         <v>-50.885333984613496</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>-93.087507772160791</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>67</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>35.224962202179242</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>69</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>81.531628159345857</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>71</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>41.998076406907039</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>73</v>
       </c>
@@ -5658,7 +5658,7 @@
         <v>34.077580724934641</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>-120.52651128238465</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>-83.25231481481481</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>80</v>
       </c>
@@ -5754,7 +5754,7 @@
         <v>98.446724871541946</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>82</v>
       </c>
@@ -5786,7 +5786,7 @@
         <v>82.819398494507141</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>84</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>-10287.520798668884</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>86</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>-30.493637026829862</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>88</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>-527.32602248430919</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>90</v>
       </c>
@@ -5914,7 +5914,7 @@
         <v>74.385023840485474</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>92</v>
       </c>
@@ -5946,7 +5946,7 @@
         <v>97.279982626635544</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>94</v>
       </c>
@@ -5978,7 +5978,7 @@
         <v>7.9967866793252087</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>96</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>-59.033515458422166</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>98</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>-695.07487520798668</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>100</v>
       </c>
@@ -6074,7 +6074,7 @@
         <v>-1264.4225604297224</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>102</v>
       </c>
@@ -6106,7 +6106,7 @@
         <v>96.466246841281929</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>104</v>
       </c>
@@ -6138,7 +6138,7 @@
         <v>27.691437029297816</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>106</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>-6608.7193460490471</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>108</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>-5.1516264267572387</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>111</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>50.726716510745248</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>113</v>
       </c>
@@ -6266,7 +6266,7 @@
         <v>-14.318656770195268</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>115</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>20.900530800675192</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>117</v>
       </c>
@@ -6327,7 +6327,7 @@
         <v>79.720437890165584</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>119</v>
       </c>
@@ -6359,7 +6359,7 @@
         <v>74.128771425707512</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>121</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>-22.851063829787236</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>123</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>-27276.760563380281</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>125</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>-751.14120511259887</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>127</v>
       </c>
@@ -6481,7 +6481,7 @@
         <v>-1495.8653846153848</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>129</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>-4.9876750406461534</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>131</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>-22.221795216683962</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>133</v>
       </c>
@@ -6574,7 +6574,7 @@
         <v>65.888913673879088</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>136</v>
       </c>
@@ -6606,7 +6606,7 @@
         <v>-547.85553047404062</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>138</v>
       </c>
@@ -6638,7 +6638,7 @@
         <v>78.236574746008714</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>140</v>
       </c>
@@ -6667,7 +6667,7 @@
         <v>73.521171017832359</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>142</v>
       </c>
@@ -6699,7 +6699,7 @@
         <v>-7.3184997441084079</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>144</v>
       </c>
@@ -6731,7 +6731,7 @@
         <v>13.038401812089164</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>146</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>13.061587899379823</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>148</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>-1203.85073441842</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>150</v>
       </c>
@@ -6827,7 +6827,7 @@
         <v>10.860819103769209</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>152</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v>29.679150413744896</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>154</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>-0.1567756475160732</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>156</v>
       </c>
@@ -6923,7 +6923,7 @@
         <v>89.640056711322003</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>158</v>
       </c>
@@ -6955,7 +6955,7 @@
         <v>32.560155432670754</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>160</v>
       </c>
@@ -6987,7 +6987,7 @@
         <v>-66.321889671361504</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>162</v>
       </c>
@@ -7019,7 +7019,7 @@
         <v>94.576953919027289</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>164</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>-360.28379935071735</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>166</v>
       </c>
@@ -7083,7 +7083,7 @@
         <v>-12.881957468909594</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>168</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v>84.933486885400015</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>170</v>
       </c>
@@ -7147,7 +7147,7 @@
         <v>-40.472276523902615</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>172</v>
       </c>
@@ -7179,7 +7179,7 @@
         <v>54.462291020360631</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>174</v>
       </c>
@@ -7211,7 +7211,7 @@
         <v>-292.68192968111202</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>176</v>
       </c>
@@ -7243,7 +7243,7 @@
         <v>92.807699204973417</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>178</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>-137.47689694789949</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>180</v>
       </c>
@@ -7307,7 +7307,7 @@
         <v>25.576865100531055</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>182</v>
       </c>
@@ -7339,7 +7339,7 @@
         <v>43.631451318222588</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>184</v>
       </c>
@@ -7371,7 +7371,7 @@
         <v>-127.03586443141124</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>186</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>93.536962522031189</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>188</v>
       </c>
@@ -7435,7 +7435,7 @@
         <v>13.417394874200927</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>190</v>
       </c>
@@ -7467,7 +7467,7 @@
         <v>-32.349389030974706</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>192</v>
       </c>
@@ -7499,7 +7499,7 @@
         <v>-41.129098394265931</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>194</v>
       </c>
@@ -7531,7 +7531,7 @@
         <v>33.702882483370281</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>196</v>
       </c>
@@ -7563,7 +7563,7 @@
         <v>70.223652998983397</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>198</v>
       </c>
@@ -7595,7 +7595,7 @@
         <v>-281.65355499480478</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>200</v>
       </c>
@@ -7627,7 +7627,7 @@
         <v>-85.653881700554521</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>202</v>
       </c>
@@ -7659,7 +7659,7 @@
         <v>-604.36860068259386</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>204</v>
       </c>
@@ -7688,7 +7688,7 @@
         <v>-1197.8025582158084</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>206</v>
       </c>
@@ -7717,7 +7717,7 @@
         <v>52.323538917695998</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>208</v>
       </c>
@@ -7746,7 +7746,7 @@
         <v>-78.374691198702109</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>210</v>
       </c>
@@ -7778,7 +7778,7 @@
         <v>57.7713614563962</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>212</v>
       </c>
@@ -7807,7 +7807,7 @@
         <v>-32.110532639166991</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>214</v>
       </c>
@@ -7839,7 +7839,7 @@
         <v>-8.7723356271323585</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>216</v>
       </c>
@@ -7871,7 +7871,7 @@
         <v>89.231755763395796</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>218</v>
       </c>
@@ -7900,7 +7900,7 @@
         <v>5.8589903862110084</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>220</v>
       </c>
@@ -7932,7 +7932,7 @@
         <v>-152.521604540178</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>222</v>
       </c>
@@ -7964,7 +7964,7 @@
         <v>38.324742758240298</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>224</v>
       </c>
@@ -7996,7 +7996,7 @@
         <v>12.807824896498257</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>226</v>
       </c>
@@ -8028,7 +8028,7 @@
         <v>87.787331110721169</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>228</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>67.837528747910682</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>230</v>
       </c>
@@ -8092,7 +8092,7 @@
         <v>-8.5447297915441425</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>232</v>
       </c>
@@ -8124,7 +8124,7 @@
         <v>81.167669819432504</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>234</v>
       </c>
@@ -8156,7 +8156,7 @@
         <v>-87.094099048902493</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>236</v>
       </c>
@@ -8188,7 +8188,7 @@
         <v>83.565260301011591</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>238</v>
       </c>
@@ -8220,7 +8220,7 @@
         <v>79.046092939956637</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>240</v>
       </c>
@@ -8252,7 +8252,7 @@
         <v>-64.89775789492225</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>242</v>
       </c>
@@ -8284,7 +8284,7 @@
         <v>-143.75099052267899</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>244</v>
       </c>
@@ -8316,7 +8316,7 @@
         <v>-166.74530951578475</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>246</v>
       </c>
@@ -8348,7 +8348,7 @@
         <v>9.3898761545318337</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>248</v>
       </c>
@@ -8380,7 +8380,7 @@
         <v>52.382451456921956</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>250</v>
       </c>
@@ -8412,7 +8412,7 @@
         <v>11.622002820874483</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>252</v>
       </c>
@@ -8444,7 +8444,7 @@
         <v>22.973309512208321</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>254</v>
       </c>
@@ -8476,7 +8476,7 @@
         <v>-72.581192438196808</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>256</v>
       </c>
@@ -8508,7 +8508,7 @@
         <v>-157.84736546034125</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>258</v>
       </c>
@@ -8540,7 +8540,7 @@
         <v>18.348256187975238</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>260</v>
       </c>
@@ -8572,7 +8572,7 @@
         <v>47.99184146249339</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>262</v>
       </c>
@@ -8604,7 +8604,7 @@
         <v>20.693555248876766</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>264</v>
       </c>
@@ -8636,7 +8636,7 @@
         <v>-2106.4174454828658</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>266</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>-56.953428201811114</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>268</v>
       </c>
@@ -8700,7 +8700,7 @@
         <v>-378.29233965551902</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>270</v>
       </c>
@@ -8732,7 +8732,7 @@
         <v>46.222940806610971</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>272</v>
       </c>
@@ -8764,7 +8764,7 @@
         <v>27.371723883351788</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>274</v>
       </c>
@@ -8796,7 +8796,7 @@
         <v>92.838237932890706</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>276</v>
       </c>
@@ -8828,7 +8828,7 @@
         <v>-29.177848255672114</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>278</v>
       </c>
@@ -8860,7 +8860,7 @@
         <v>-55.89709762532982</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>280</v>
       </c>
@@ -8892,7 +8892,7 @@
         <v>-1817.4572233051765</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>282</v>
       </c>
@@ -8924,7 +8924,7 @@
         <v>-0.20065727106112868</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>284</v>
       </c>
@@ -8956,7 +8956,7 @@
         <v>-1831.2252964426877</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>286</v>
       </c>
@@ -8985,7 +8985,7 @@
         <v>67.61334028139656</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>288</v>
       </c>
@@ -9014,7 +9014,7 @@
         <v>-241.11649102819712</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>290</v>
       </c>
@@ -9043,7 +9043,7 @@
         <v>-1633.7199086276578</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>292</v>
       </c>
@@ -9075,7 +9075,7 @@
         <v>57.108323736603488</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>294</v>
       </c>
@@ -9104,7 +9104,7 @@
         <v>48.703569705740463</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>296</v>
       </c>
@@ -9136,7 +9136,7 @@
         <v>-3148.8388969521047</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>298</v>
       </c>
@@ -9168,7 +9168,7 @@
         <v>-1292.4759793052474</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>300</v>
       </c>
@@ -9200,7 +9200,7 @@
         <v>57.390969666353946</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>302</v>
       </c>
@@ -9232,7 +9232,7 @@
         <v>77.506005173688095</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>304</v>
       </c>
@@ -9264,7 +9264,7 @@
         <v>28.226957651204362</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>306</v>
       </c>
@@ -9296,7 +9296,7 @@
         <v>-20.459639777432042</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>308</v>
       </c>
@@ -9328,7 +9328,7 @@
         <v>53.057453632687206</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>310</v>
       </c>
@@ -9360,7 +9360,7 @@
         <v>-34.785622026903575</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>312</v>
       </c>
@@ -9392,7 +9392,7 @@
         <v>-152.52762175174374</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>314</v>
       </c>
@@ -9424,7 +9424,7 @@
         <v>-12.604099350103033</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>316</v>
       </c>
@@ -9456,7 +9456,7 @@
         <v>-2515.4689403166872</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>318</v>
       </c>
@@ -9488,7 +9488,7 @@
         <v>56.876523493317649</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>320</v>
       </c>
@@ -9520,7 +9520,7 @@
         <v>-31.604516557548145</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>322</v>
       </c>
@@ -9552,7 +9552,7 @@
         <v>71.99709609292502</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>324</v>
       </c>
@@ -9584,7 +9584,7 @@
         <v>6.7795012022063998</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>326</v>
       </c>
@@ -9616,7 +9616,7 @@
         <v>-136.93625598387504</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>328</v>
       </c>
@@ -9648,7 +9648,7 @@
         <v>-19.383253602222929</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>330</v>
       </c>
@@ -9680,7 +9680,7 @@
         <v>-100.40170831747642</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>332</v>
       </c>
@@ -9712,7 +9712,7 @@
         <v>-163.86166572539119</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>334</v>
       </c>
@@ -9744,7 +9744,7 @@
         <v>-39.556259904912835</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>336</v>
       </c>
@@ -9776,7 +9776,7 @@
         <v>57.680509285219507</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>10</v>
       </c>
@@ -9808,7 +9808,7 @@
         <v>-94.774008050603783</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>339</v>
       </c>
@@ -9840,7 +9840,7 @@
         <v>99.300406073446325</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>341</v>
       </c>
@@ -9872,7 +9872,7 @@
         <v>52.278105665326606</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>343</v>
       </c>
@@ -9904,7 +9904,7 @@
         <v>88.391617637337205</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>345</v>
       </c>
@@ -9936,7 +9936,7 @@
         <v>52.442543868888379</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>347</v>
       </c>
@@ -9968,7 +9968,7 @@
         <v>89.959938875810522</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>349</v>
       </c>
@@ -10000,7 +10000,7 @@
         <v>-113.66424986056887</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>351</v>
       </c>
@@ -10032,7 +10032,7 @@
         <v>-53.399203657277688</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>353</v>
       </c>
@@ -10064,7 +10064,7 @@
         <v>20.559537365753453</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>355</v>
       </c>
@@ -10093,7 +10093,7 @@
         <v>5.4314463394453849</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>357</v>
       </c>
@@ -10122,7 +10122,7 @@
         <v>57.316703578505646</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>359</v>
       </c>
@@ -10151,7 +10151,7 @@
         <v>83.635294981999849</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>361</v>
       </c>
@@ -10183,7 +10183,7 @@
         <v>-8.4988962472406193</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>363</v>
       </c>
@@ -10212,7 +10212,7 @@
         <v>-512.73047939714615</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>365</v>
       </c>
@@ -10244,7 +10244,7 @@
         <v>-679.56907236152165</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>367</v>
       </c>
@@ -10273,7 +10273,7 @@
         <v>68.990751605536417</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>369</v>
       </c>
@@ -10305,7 +10305,7 @@
         <v>-262.3487018386769</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>371</v>
       </c>
@@ -10337,7 +10337,7 @@
         <v>10.617804020873518</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>373</v>
       </c>
@@ -10366,7 +10366,7 @@
         <v>-607.60990850256633</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>375</v>
       </c>
@@ -10398,7 +10398,7 @@
         <v>-343.22698867640838</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>377</v>
       </c>
@@ -10430,7 +10430,7 @@
         <v>42.445263386082814</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>379</v>
       </c>
@@ -10462,7 +10462,7 @@
         <v>33.572536850271526</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>381</v>
       </c>
@@ -10494,7 +10494,7 @@
         <v>-26.356170952466577</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>383</v>
       </c>
@@ -10526,7 +10526,7 @@
         <v>-147.13278664940293</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>385</v>
       </c>
@@ -10558,7 +10558,7 @@
         <v>-317.41481202062113</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>387</v>
       </c>
@@ -10590,7 +10590,7 @@
         <v>89.520871997281546</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>389</v>
       </c>
@@ -10622,7 +10622,7 @@
         <v>-258.99464149017609</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>391</v>
       </c>
@@ -10654,7 +10654,7 @@
         <v>38.947488041984769</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>393</v>
       </c>
@@ -10686,7 +10686,7 @@
         <v>-78247.222222222219</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>395</v>
       </c>
@@ -10718,7 +10718,7 @@
         <v>42.556901891217414</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>397</v>
       </c>
@@ -10750,7 +10750,7 @@
         <v>9.7106070633535921</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>399</v>
       </c>
@@ -10782,7 +10782,7 @@
         <v>86.840567002776567</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>401</v>
       </c>
@@ -10814,7 +10814,7 @@
         <v>-553.70304114490159</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>403</v>
       </c>
@@ -10846,7 +10846,7 @@
         <v>53.126778047897382</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>405</v>
       </c>
@@ -10878,7 +10878,7 @@
         <v>5.6288195561268232E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>407</v>
       </c>
@@ -10907,7 +10907,7 @@
         <v>15.885605212927013</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>409</v>
       </c>
@@ -10936,7 +10936,7 @@
         <v>82.462207156720694</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>411</v>
       </c>
@@ -10968,7 +10968,7 @@
         <v>-104.72685005811702</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>413</v>
       </c>
@@ -11000,7 +11000,7 @@
         <v>41.181885872876194</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>415</v>
       </c>
@@ -11029,7 +11029,7 @@
         <v>7.9982264718356033</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>417</v>
       </c>
@@ -11070,27 +11070,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC0C6B7-48AE-4BCD-ADF0-20CF516D0AD5}">
-  <dimension ref="A1:J216"/>
+  <dimension ref="A1:J142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:XFD44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" customWidth="1"/>
+    <col min="4" max="4" width="6.453125" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="22.453125" customWidth="1"/>
+    <col min="7" max="7" width="17.26953125" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" customWidth="1"/>
+    <col min="10" max="10" width="9.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="20" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="26" t="s">
         <v>822</v>
       </c>
@@ -11104,8 +11104,8 @@
       <c r="I1" s="26"/>
       <c r="J1" s="26"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="28" t="s">
         <v>814</v>
       </c>
@@ -11119,7 +11119,7 @@
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="E4" s="27" t="s">
         <v>455</v>
       </c>
@@ -11130,7 +11130,7 @@
       <c r="I4" s="27"/>
       <c r="J4" s="27"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>450</v>
       </c>
@@ -11152,7 +11152,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>451</v>
       </c>
@@ -11168,7 +11168,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>452</v>
       </c>
@@ -11184,7 +11184,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>453</v>
       </c>
@@ -11200,7 +11200,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>454</v>
       </c>
@@ -11216,7 +11216,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>457</v>
       </c>
@@ -11232,7 +11232,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>458</v>
       </c>
@@ -11248,7 +11248,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>459</v>
       </c>
@@ -11258,12 +11258,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H13">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="22" t="s">
         <v>770</v>
       </c>
@@ -11274,62 +11274,62 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H15">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H16">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H17">
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H18">
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H19">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H20">
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H21">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H22">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H23">
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H24">
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H25">
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="28" t="s">
         <v>815</v>
       </c>
@@ -11343,8 +11343,8 @@
       <c r="I27" s="28"/>
       <c r="J27" s="28"/>
     </row>
-    <row r="28" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>761</v>
       </c>
@@ -11358,7 +11358,7 @@
       <c r="H29" s="30"/>
       <c r="I29" s="30"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>762</v>
       </c>
@@ -11380,7 +11380,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>763</v>
       </c>
@@ -11399,7 +11399,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>764</v>
       </c>
@@ -11418,7 +11418,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>765</v>
       </c>
@@ -11437,7 +11437,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>766</v>
       </c>
@@ -11456,7 +11456,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>767</v>
       </c>
@@ -11475,7 +11475,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>768</v>
       </c>
@@ -11494,7 +11494,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>769</v>
       </c>
@@ -11513,7 +11513,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -11530,7 +11530,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E39" t="s">
         <v>492</v>
       </c>
@@ -11544,7 +11544,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
         <v>500</v>
       </c>
@@ -11557,1230 +11557,1230 @@
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
     </row>
-    <row r="118" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="28" t="s">
+    <row r="44" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="28" t="s">
         <v>470</v>
       </c>
-      <c r="B118" s="28"/>
-      <c r="C118" s="28"/>
-      <c r="D118" s="28"/>
-      <c r="E118" s="28"/>
-      <c r="F118" s="28"/>
-      <c r="G118" s="28"/>
-      <c r="H118" s="28"/>
-      <c r="I118" s="28"/>
-      <c r="J118" s="28"/>
-    </row>
-    <row r="119" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="120" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="1" t="s">
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+    </row>
+    <row r="45" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="E120" s="30" t="s">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="E46" s="30" t="s">
         <v>739</v>
       </c>
-      <c r="F120" s="30"/>
-      <c r="G120" s="30"/>
-      <c r="H120" s="30"/>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="E121" s="11" t="s">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="E47" s="11" t="s">
         <v>724</v>
       </c>
-      <c r="F121" s="11" t="s">
+      <c r="F47" s="11" t="s">
         <v>436</v>
       </c>
-      <c r="G121" s="11" t="s">
+      <c r="G47" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="H121" s="11" t="s">
+      <c r="H47" s="11" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="E48" t="s">
+        <v>102</v>
+      </c>
+      <c r="F48" t="s">
+        <v>103</v>
+      </c>
+      <c r="G48">
+        <v>8.81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="E49" t="s">
+        <v>104</v>
+      </c>
+      <c r="F49" t="s">
+        <v>105</v>
+      </c>
+      <c r="G49">
+        <v>166.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="E50" t="s">
+        <v>106</v>
+      </c>
+      <c r="F50" t="s">
+        <v>107</v>
+      </c>
+      <c r="G50">
+        <v>246.21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="E51" t="s">
+        <v>108</v>
+      </c>
+      <c r="F51" t="s">
+        <v>109</v>
+      </c>
+      <c r="G51">
+        <v>687.25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="E52" t="s">
+        <v>111</v>
+      </c>
+      <c r="F52" t="s">
+        <v>112</v>
+      </c>
+      <c r="G52">
+        <v>388.17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E53" t="s">
+        <v>113</v>
+      </c>
+      <c r="F53" t="s">
+        <v>114</v>
+      </c>
+      <c r="G53">
+        <v>634.55999999999995</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E54" t="s">
+        <v>115</v>
+      </c>
+      <c r="F54" t="s">
+        <v>116</v>
+      </c>
+      <c r="G54">
+        <v>777.88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E55" t="s">
+        <v>117</v>
+      </c>
+      <c r="F55" t="s">
+        <v>118</v>
+      </c>
+      <c r="G55">
+        <v>89.66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E56" t="s">
+        <v>119</v>
+      </c>
+      <c r="F56" t="s">
+        <v>120</v>
+      </c>
+      <c r="G56">
+        <v>154.86000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E58" s="21" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E59">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E60" s="29" t="s">
+        <v>726</v>
+      </c>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E61" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="G61" s="21" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E62">
+        <v>650</v>
+      </c>
+      <c r="G62" s="20">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E63" s="29" t="s">
+        <v>725</v>
+      </c>
+      <c r="F63" s="29"/>
+      <c r="G63" s="29"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E64" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="G64" s="21" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E65">
+        <v>300</v>
+      </c>
+      <c r="G65" s="20">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="B68" s="28"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="28"/>
+    </row>
+    <row r="69" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="70" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E70" s="25" t="s">
+        <v>730</v>
+      </c>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E71" s="11" t="s">
+        <v>685</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>686</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>687</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E72" t="s">
+        <v>547</v>
+      </c>
+      <c r="F72" t="s">
+        <v>548</v>
+      </c>
+      <c r="G72" t="s">
+        <v>502</v>
+      </c>
+      <c r="H72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E73" t="s">
+        <v>549</v>
+      </c>
+      <c r="F73" t="s">
+        <v>550</v>
+      </c>
+      <c r="G73" t="s">
+        <v>504</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E74" t="s">
+        <v>551</v>
+      </c>
+      <c r="F74" t="s">
+        <v>552</v>
+      </c>
+      <c r="G74" t="s">
+        <v>506</v>
+      </c>
+      <c r="H74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E75" t="s">
+        <v>553</v>
+      </c>
+      <c r="F75" t="s">
+        <v>554</v>
+      </c>
+      <c r="G75" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E76" t="s">
+        <v>555</v>
+      </c>
+      <c r="F76" t="s">
+        <v>556</v>
+      </c>
+      <c r="G76" t="s">
+        <v>510</v>
+      </c>
+      <c r="H76">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E77" t="s">
+        <v>557</v>
+      </c>
+      <c r="F77" t="s">
+        <v>558</v>
+      </c>
+      <c r="G77" t="s">
+        <v>512</v>
+      </c>
+      <c r="H77">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E78" t="s">
+        <v>559</v>
+      </c>
+      <c r="F78" t="s">
+        <v>560</v>
+      </c>
+      <c r="G78" t="s">
+        <v>514</v>
+      </c>
+      <c r="H78">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E79" t="s">
+        <v>561</v>
+      </c>
+      <c r="F79" t="s">
+        <v>562</v>
+      </c>
+      <c r="G79" t="s">
+        <v>502</v>
+      </c>
+      <c r="H79">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="E80" t="s">
+        <v>563</v>
+      </c>
+      <c r="F80" t="s">
+        <v>564</v>
+      </c>
+      <c r="G80" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="E81" t="s">
+        <v>565</v>
+      </c>
+      <c r="F81" t="s">
+        <v>566</v>
+      </c>
+      <c r="G81" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="E82" t="s">
+        <v>567</v>
+      </c>
+      <c r="F82" t="s">
+        <v>568</v>
+      </c>
+      <c r="G82" t="s">
+        <v>504</v>
+      </c>
+      <c r="H82">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E83" t="s">
+        <v>569</v>
+      </c>
+      <c r="F83" t="s">
+        <v>570</v>
+      </c>
+      <c r="G83" t="s">
+        <v>520</v>
+      </c>
+      <c r="H83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="E84" t="s">
+        <v>571</v>
+      </c>
+      <c r="F84" t="s">
+        <v>572</v>
+      </c>
+      <c r="G84" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="E85" t="s">
+        <v>573</v>
+      </c>
+      <c r="F85" t="s">
+        <v>574</v>
+      </c>
+      <c r="G85" t="s">
+        <v>522</v>
+      </c>
+      <c r="H85">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="E86" t="s">
+        <v>575</v>
+      </c>
+      <c r="F86" t="s">
+        <v>576</v>
+      </c>
+      <c r="G86" t="s">
+        <v>523</v>
+      </c>
+      <c r="H86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E87" t="s">
+        <v>577</v>
+      </c>
+      <c r="F87" t="s">
+        <v>578</v>
+      </c>
+      <c r="G87" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A88" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="E88" t="s">
+        <v>579</v>
+      </c>
+      <c r="F88" t="s">
+        <v>580</v>
+      </c>
+      <c r="G88" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E89" t="s">
+        <v>581</v>
+      </c>
+      <c r="F89" t="s">
+        <v>582</v>
+      </c>
+      <c r="G89" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E90" t="s">
+        <v>583</v>
+      </c>
+      <c r="F90" t="s">
+        <v>584</v>
+      </c>
+      <c r="G90" t="s">
+        <v>525</v>
+      </c>
+      <c r="H90">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E91" t="s">
+        <v>585</v>
+      </c>
+      <c r="F91" t="s">
+        <v>586</v>
+      </c>
+      <c r="G91" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E92" t="s">
+        <v>587</v>
+      </c>
+      <c r="F92" t="s">
+        <v>588</v>
+      </c>
+      <c r="G92" t="s">
+        <v>527</v>
+      </c>
+      <c r="H92">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E93" t="s">
+        <v>589</v>
+      </c>
+      <c r="F93" t="s">
+        <v>590</v>
+      </c>
+      <c r="G93" t="s">
+        <v>528</v>
+      </c>
+      <c r="H93">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E94" t="s">
+        <v>591</v>
+      </c>
+      <c r="F94" t="s">
+        <v>592</v>
+      </c>
+      <c r="G94" t="s">
+        <v>506</v>
+      </c>
+      <c r="H94">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="E95" t="s">
+        <v>593</v>
+      </c>
+      <c r="F95" t="s">
+        <v>594</v>
+      </c>
+      <c r="G95" t="s">
+        <v>504</v>
+      </c>
+      <c r="H95">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="E96" t="s">
+        <v>595</v>
+      </c>
+      <c r="F96" t="s">
+        <v>596</v>
+      </c>
+      <c r="G96" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="E97" t="s">
+        <v>597</v>
+      </c>
+      <c r="F97" t="s">
+        <v>598</v>
+      </c>
+      <c r="G97" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="E98" t="s">
+        <v>599</v>
+      </c>
+      <c r="F98" t="s">
+        <v>600</v>
+      </c>
+      <c r="G98" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="E99" t="s">
+        <v>601</v>
+      </c>
+      <c r="F99" t="s">
+        <v>602</v>
+      </c>
+      <c r="G99" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="E100" t="s">
+        <v>603</v>
+      </c>
+      <c r="F100" t="s">
+        <v>604</v>
+      </c>
+      <c r="G100" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E101" t="s">
+        <v>605</v>
+      </c>
+      <c r="F101" t="s">
+        <v>606</v>
+      </c>
+      <c r="G101" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="E102" t="s">
+        <v>607</v>
+      </c>
+      <c r="F102" t="s">
+        <v>608</v>
+      </c>
+      <c r="G102" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="E103" t="s">
+        <v>609</v>
+      </c>
+      <c r="F103" t="s">
+        <v>610</v>
+      </c>
+      <c r="G103" t="s">
+        <v>532</v>
+      </c>
+      <c r="H103">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="E104" t="s">
+        <v>611</v>
+      </c>
+      <c r="F104" t="s">
+        <v>612</v>
+      </c>
+      <c r="G104" t="s">
+        <v>527</v>
+      </c>
+      <c r="H104">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A105" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="E105" t="s">
+        <v>613</v>
+      </c>
+      <c r="F105" t="s">
+        <v>614</v>
+      </c>
+      <c r="G105" t="s">
+        <v>522</v>
+      </c>
+      <c r="H105">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E106" t="s">
+        <v>615</v>
+      </c>
+      <c r="F106" t="s">
+        <v>616</v>
+      </c>
+      <c r="G106" t="s">
+        <v>502</v>
+      </c>
+      <c r="H106">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E107" t="s">
+        <v>617</v>
+      </c>
+      <c r="F107" t="s">
+        <v>618</v>
+      </c>
+      <c r="G107" t="s">
+        <v>527</v>
+      </c>
+      <c r="H107">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E108" t="s">
+        <v>619</v>
+      </c>
+      <c r="F108" t="s">
+        <v>620</v>
+      </c>
+      <c r="G108" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E109" t="s">
+        <v>621</v>
+      </c>
+      <c r="F109" t="s">
+        <v>622</v>
+      </c>
+      <c r="G109" t="s">
+        <v>533</v>
+      </c>
+      <c r="H109">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E110" t="s">
+        <v>623</v>
+      </c>
+      <c r="F110" t="s">
+        <v>624</v>
+      </c>
+      <c r="G110" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E111" t="s">
+        <v>625</v>
+      </c>
+      <c r="F111" t="s">
+        <v>626</v>
+      </c>
+      <c r="G111" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E112" t="s">
+        <v>627</v>
+      </c>
+      <c r="F112" t="s">
+        <v>628</v>
+      </c>
+      <c r="G112" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="113" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E113" t="s">
+        <v>629</v>
+      </c>
+      <c r="F113" t="s">
+        <v>630</v>
+      </c>
+      <c r="G113" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="114" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E114" t="s">
+        <v>631</v>
+      </c>
+      <c r="F114" t="s">
+        <v>632</v>
+      </c>
+      <c r="G114" t="s">
+        <v>536</v>
+      </c>
+      <c r="H114">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="115" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E115" t="s">
+        <v>633</v>
+      </c>
+      <c r="F115" t="s">
+        <v>634</v>
+      </c>
+      <c r="G115" t="s">
+        <v>502</v>
+      </c>
+      <c r="H115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E116" t="s">
+        <v>635</v>
+      </c>
+      <c r="F116" t="s">
+        <v>636</v>
+      </c>
+      <c r="G116" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="117" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E117" t="s">
+        <v>637</v>
+      </c>
+      <c r="F117" t="s">
+        <v>638</v>
+      </c>
+      <c r="G117" t="s">
+        <v>537</v>
+      </c>
+      <c r="H117">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="118" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E118" t="s">
+        <v>639</v>
+      </c>
+      <c r="F118" t="s">
+        <v>640</v>
+      </c>
+      <c r="G118" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="119" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E119" t="s">
+        <v>641</v>
+      </c>
+      <c r="F119" t="s">
+        <v>642</v>
+      </c>
+      <c r="G119" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="120" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E120" t="s">
+        <v>643</v>
+      </c>
+      <c r="F120" t="s">
+        <v>644</v>
+      </c>
+      <c r="G120" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="121" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E121" t="s">
+        <v>645</v>
+      </c>
+      <c r="F121" t="s">
+        <v>646</v>
+      </c>
+      <c r="G121" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="122" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E122" t="s">
-        <v>102</v>
+        <v>647</v>
       </c>
       <c r="F122" t="s">
-        <v>103</v>
-      </c>
-      <c r="G122">
-        <v>8.81</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
+        <v>648</v>
+      </c>
+      <c r="G122" t="s">
+        <v>539</v>
+      </c>
+      <c r="H122">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="123" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E123" t="s">
-        <v>104</v>
+        <v>649</v>
       </c>
       <c r="F123" t="s">
-        <v>105</v>
-      </c>
-      <c r="G123">
-        <v>166.1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
+        <v>650</v>
+      </c>
+      <c r="G123" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="124" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E124" t="s">
-        <v>106</v>
+        <v>651</v>
       </c>
       <c r="F124" t="s">
-        <v>107</v>
-      </c>
-      <c r="G124">
-        <v>246.21</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
+        <v>652</v>
+      </c>
+      <c r="G124" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="125" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E125" t="s">
-        <v>108</v>
+        <v>653</v>
       </c>
       <c r="F125" t="s">
-        <v>109</v>
-      </c>
-      <c r="G125">
-        <v>687.25</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
+        <v>654</v>
+      </c>
+      <c r="G125" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="126" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E126" t="s">
-        <v>111</v>
+        <v>655</v>
       </c>
       <c r="F126" t="s">
-        <v>112</v>
-      </c>
-      <c r="G126">
-        <v>388.17</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+        <v>656</v>
+      </c>
+      <c r="G126" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="127" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E127" t="s">
-        <v>113</v>
+        <v>657</v>
       </c>
       <c r="F127" t="s">
-        <v>114</v>
-      </c>
-      <c r="G127">
-        <v>634.55999999999995</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+        <v>658</v>
+      </c>
+      <c r="G127" t="s">
+        <v>502</v>
+      </c>
+      <c r="H127">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E128" t="s">
-        <v>115</v>
+        <v>659</v>
       </c>
       <c r="F128" t="s">
-        <v>116</v>
-      </c>
-      <c r="G128">
-        <v>777.88</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+      <c r="G128" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E129" t="s">
-        <v>117</v>
+        <v>661</v>
       </c>
       <c r="F129" t="s">
-        <v>118</v>
-      </c>
-      <c r="G129">
-        <v>89.66</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+        <v>662</v>
+      </c>
+      <c r="G129" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E130" t="s">
-        <v>119</v>
+        <v>663</v>
       </c>
       <c r="F130" t="s">
-        <v>120</v>
-      </c>
-      <c r="G130">
-        <v>154.86000000000001</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E132" s="21" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E133">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E134" s="29" t="s">
-        <v>726</v>
-      </c>
-      <c r="F134" s="29"/>
-      <c r="G134" s="29"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E135" s="21" t="s">
-        <v>439</v>
-      </c>
-      <c r="G135" s="21" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E136">
-        <v>650</v>
-      </c>
-      <c r="G136" s="20">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E137" s="29" t="s">
-        <v>725</v>
-      </c>
-      <c r="F137" s="29"/>
-      <c r="G137" s="29"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E138" s="21" t="s">
-        <v>439</v>
-      </c>
-      <c r="G138" s="21" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E139">
-        <v>300</v>
-      </c>
-      <c r="G139" s="20">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="28" t="s">
-        <v>471</v>
-      </c>
-      <c r="B142" s="28"/>
-      <c r="C142" s="28"/>
-      <c r="D142" s="28"/>
-      <c r="E142" s="28"/>
-      <c r="F142" s="28"/>
-      <c r="G142" s="28"/>
-      <c r="H142" s="28"/>
-      <c r="I142" s="28"/>
-      <c r="J142" s="28"/>
-    </row>
-    <row r="143" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="144" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E144" s="25" t="s">
-        <v>730</v>
-      </c>
-      <c r="F144" s="25"/>
-      <c r="G144" s="25"/>
-      <c r="H144" s="25"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E145" s="11" t="s">
-        <v>685</v>
-      </c>
-      <c r="F145" s="11" t="s">
-        <v>686</v>
-      </c>
-      <c r="G145" s="11" t="s">
-        <v>687</v>
-      </c>
-      <c r="H145" s="11" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E146" t="s">
-        <v>547</v>
-      </c>
-      <c r="F146" t="s">
-        <v>548</v>
-      </c>
-      <c r="G146" t="s">
-        <v>502</v>
-      </c>
-      <c r="H146">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E147" t="s">
-        <v>549</v>
-      </c>
-      <c r="F147" t="s">
-        <v>550</v>
-      </c>
-      <c r="G147" t="s">
+        <v>664</v>
+      </c>
+      <c r="G130" t="s">
+        <v>510</v>
+      </c>
+      <c r="H130">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E131" t="s">
+        <v>665</v>
+      </c>
+      <c r="F131" t="s">
+        <v>666</v>
+      </c>
+      <c r="G131" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E132" t="s">
+        <v>667</v>
+      </c>
+      <c r="F132" t="s">
+        <v>668</v>
+      </c>
+      <c r="G132" t="s">
+        <v>543</v>
+      </c>
+      <c r="H132">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E133" t="s">
+        <v>669</v>
+      </c>
+      <c r="F133" t="s">
+        <v>670</v>
+      </c>
+      <c r="G133" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E134" t="s">
+        <v>671</v>
+      </c>
+      <c r="F134" t="s">
+        <v>672</v>
+      </c>
+      <c r="G134" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E135" t="s">
+        <v>673</v>
+      </c>
+      <c r="F135" t="s">
+        <v>674</v>
+      </c>
+      <c r="G135" t="s">
         <v>504</v>
       </c>
-      <c r="H147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E148" t="s">
-        <v>551</v>
-      </c>
-      <c r="F148" t="s">
-        <v>552</v>
-      </c>
-      <c r="G148" t="s">
-        <v>506</v>
-      </c>
-      <c r="H148">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E149" t="s">
-        <v>553</v>
-      </c>
-      <c r="F149" t="s">
-        <v>554</v>
-      </c>
-      <c r="G149" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E150" t="s">
-        <v>555</v>
-      </c>
-      <c r="F150" t="s">
-        <v>556</v>
-      </c>
-      <c r="G150" t="s">
-        <v>510</v>
-      </c>
-      <c r="H150">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E151" t="s">
-        <v>557</v>
-      </c>
-      <c r="F151" t="s">
-        <v>558</v>
-      </c>
-      <c r="G151" t="s">
-        <v>512</v>
-      </c>
-      <c r="H151">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E152" t="s">
-        <v>559</v>
-      </c>
-      <c r="F152" t="s">
-        <v>560</v>
-      </c>
-      <c r="G152" t="s">
-        <v>514</v>
-      </c>
-      <c r="H152">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E153" t="s">
-        <v>561</v>
-      </c>
-      <c r="F153" t="s">
-        <v>562</v>
-      </c>
-      <c r="G153" t="s">
-        <v>502</v>
-      </c>
-      <c r="H153">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="B154" s="1"/>
-      <c r="C154" s="1"/>
-      <c r="E154" t="s">
-        <v>563</v>
-      </c>
-      <c r="F154" t="s">
-        <v>564</v>
-      </c>
-      <c r="G154" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="B155" s="1"/>
-      <c r="C155" s="1"/>
-      <c r="E155" t="s">
-        <v>565</v>
-      </c>
-      <c r="F155" t="s">
-        <v>566</v>
-      </c>
-      <c r="G155" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="E156" t="s">
-        <v>567</v>
-      </c>
-      <c r="F156" t="s">
-        <v>568</v>
-      </c>
-      <c r="G156" t="s">
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E136" t="s">
+        <v>675</v>
+      </c>
+      <c r="F136" t="s">
+        <v>676</v>
+      </c>
+      <c r="G136" t="s">
+        <v>545</v>
+      </c>
+      <c r="H136">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E137" t="s">
+        <v>677</v>
+      </c>
+      <c r="F137" t="s">
+        <v>678</v>
+      </c>
+      <c r="G137" t="s">
+        <v>536</v>
+      </c>
+      <c r="H137">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E138" t="s">
+        <v>679</v>
+      </c>
+      <c r="F138" t="s">
+        <v>680</v>
+      </c>
+      <c r="G138" t="s">
         <v>504</v>
       </c>
-      <c r="H156">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E157" t="s">
-        <v>569</v>
-      </c>
-      <c r="F157" t="s">
-        <v>570</v>
-      </c>
-      <c r="G157" t="s">
-        <v>520</v>
-      </c>
-      <c r="H157">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="B158" s="1"/>
-      <c r="C158" s="1"/>
-      <c r="E158" t="s">
-        <v>571</v>
-      </c>
-      <c r="F158" t="s">
-        <v>572</v>
-      </c>
-      <c r="G158" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="B159" s="1"/>
-      <c r="C159" s="1"/>
-      <c r="E159" t="s">
-        <v>573</v>
-      </c>
-      <c r="F159" t="s">
-        <v>574</v>
-      </c>
-      <c r="G159" t="s">
-        <v>522</v>
-      </c>
-      <c r="H159">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
-      <c r="E160" t="s">
-        <v>575</v>
-      </c>
-      <c r="F160" t="s">
-        <v>576</v>
-      </c>
-      <c r="G160" t="s">
-        <v>523</v>
-      </c>
-      <c r="H160">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E161" t="s">
-        <v>577</v>
-      </c>
-      <c r="F161" t="s">
-        <v>578</v>
-      </c>
-      <c r="G161" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="10" t="s">
-        <v>689</v>
-      </c>
-      <c r="B162" s="10" t="s">
-        <v>690</v>
-      </c>
-      <c r="E162" t="s">
-        <v>579</v>
-      </c>
-      <c r="F162" t="s">
-        <v>580</v>
-      </c>
-      <c r="G162" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E163" t="s">
-        <v>581</v>
-      </c>
-      <c r="F163" t="s">
-        <v>582</v>
-      </c>
-      <c r="G163" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E164" t="s">
-        <v>583</v>
-      </c>
-      <c r="F164" t="s">
-        <v>584</v>
-      </c>
-      <c r="G164" t="s">
-        <v>525</v>
-      </c>
-      <c r="H164">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E165" t="s">
-        <v>585</v>
-      </c>
-      <c r="F165" t="s">
-        <v>586</v>
-      </c>
-      <c r="G165" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E166" t="s">
-        <v>587</v>
-      </c>
-      <c r="F166" t="s">
-        <v>588</v>
-      </c>
-      <c r="G166" t="s">
-        <v>527</v>
-      </c>
-      <c r="H166">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E167" t="s">
-        <v>589</v>
-      </c>
-      <c r="F167" t="s">
-        <v>590</v>
-      </c>
-      <c r="G167" t="s">
-        <v>528</v>
-      </c>
-      <c r="H167">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E168" t="s">
-        <v>591</v>
-      </c>
-      <c r="F168" t="s">
-        <v>592</v>
-      </c>
-      <c r="G168" t="s">
-        <v>506</v>
-      </c>
-      <c r="H168">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="B169" s="1"/>
-      <c r="C169" s="1"/>
-      <c r="E169" t="s">
-        <v>593</v>
-      </c>
-      <c r="F169" t="s">
-        <v>594</v>
-      </c>
-      <c r="G169" t="s">
+      <c r="H138">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E139" t="s">
+        <v>681</v>
+      </c>
+      <c r="F139" t="s">
+        <v>682</v>
+      </c>
+      <c r="G139" t="s">
         <v>504</v>
       </c>
-      <c r="H169">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="B170" s="1"/>
-      <c r="C170" s="1"/>
-      <c r="E170" t="s">
-        <v>595</v>
-      </c>
-      <c r="F170" t="s">
-        <v>596</v>
-      </c>
-      <c r="G170" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="B171" s="1"/>
-      <c r="C171" s="1"/>
-      <c r="E171" t="s">
-        <v>597</v>
-      </c>
-      <c r="F171" t="s">
-        <v>598</v>
-      </c>
-      <c r="G171" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="B172" s="1"/>
-      <c r="C172" s="1"/>
-      <c r="E172" t="s">
-        <v>599</v>
-      </c>
-      <c r="F172" t="s">
-        <v>600</v>
-      </c>
-      <c r="G172" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="B173" s="1"/>
-      <c r="C173" s="1"/>
-      <c r="E173" t="s">
-        <v>601</v>
-      </c>
-      <c r="F173" t="s">
-        <v>602</v>
-      </c>
-      <c r="G173" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="E174" t="s">
-        <v>603</v>
-      </c>
-      <c r="F174" t="s">
-        <v>604</v>
-      </c>
-      <c r="G174" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E175" t="s">
-        <v>605</v>
-      </c>
-      <c r="F175" t="s">
-        <v>606</v>
-      </c>
-      <c r="G175" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="B176" s="1"/>
-      <c r="C176" s="1"/>
-      <c r="E176" t="s">
-        <v>607</v>
-      </c>
-      <c r="F176" t="s">
-        <v>608</v>
-      </c>
-      <c r="G176" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="B177" s="1"/>
-      <c r="C177" s="1"/>
-      <c r="E177" t="s">
-        <v>609</v>
-      </c>
-      <c r="F177" t="s">
-        <v>610</v>
-      </c>
-      <c r="G177" t="s">
-        <v>532</v>
-      </c>
-      <c r="H177">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="B178" s="1"/>
-      <c r="C178" s="1"/>
-      <c r="E178" t="s">
-        <v>611</v>
-      </c>
-      <c r="F178" t="s">
-        <v>612</v>
-      </c>
-      <c r="G178" t="s">
-        <v>527</v>
-      </c>
-      <c r="H178">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="E179" t="s">
-        <v>613</v>
-      </c>
-      <c r="F179" t="s">
-        <v>614</v>
-      </c>
-      <c r="G179" t="s">
-        <v>522</v>
-      </c>
-      <c r="H179">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E180" t="s">
-        <v>615</v>
-      </c>
-      <c r="F180" t="s">
-        <v>616</v>
-      </c>
-      <c r="G180" t="s">
-        <v>502</v>
-      </c>
-      <c r="H180">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E181" t="s">
-        <v>617</v>
-      </c>
-      <c r="F181" t="s">
-        <v>618</v>
-      </c>
-      <c r="G181" t="s">
-        <v>527</v>
-      </c>
-      <c r="H181">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E182" t="s">
-        <v>619</v>
-      </c>
-      <c r="F182" t="s">
-        <v>620</v>
-      </c>
-      <c r="G182" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E183" t="s">
-        <v>621</v>
-      </c>
-      <c r="F183" t="s">
-        <v>622</v>
-      </c>
-      <c r="G183" t="s">
-        <v>533</v>
-      </c>
-      <c r="H183">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E184" t="s">
-        <v>623</v>
-      </c>
-      <c r="F184" t="s">
-        <v>624</v>
-      </c>
-      <c r="G184" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E185" t="s">
-        <v>625</v>
-      </c>
-      <c r="F185" t="s">
-        <v>626</v>
-      </c>
-      <c r="G185" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E186" t="s">
-        <v>627</v>
-      </c>
-      <c r="F186" t="s">
-        <v>628</v>
-      </c>
-      <c r="G186" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E187" t="s">
-        <v>629</v>
-      </c>
-      <c r="F187" t="s">
-        <v>630</v>
-      </c>
-      <c r="G187" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E188" t="s">
-        <v>631</v>
-      </c>
-      <c r="F188" t="s">
-        <v>632</v>
-      </c>
-      <c r="G188" t="s">
-        <v>536</v>
-      </c>
-      <c r="H188">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E189" t="s">
-        <v>633</v>
-      </c>
-      <c r="F189" t="s">
-        <v>634</v>
-      </c>
-      <c r="G189" t="s">
-        <v>502</v>
-      </c>
-      <c r="H189">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E190" t="s">
-        <v>635</v>
-      </c>
-      <c r="F190" t="s">
-        <v>636</v>
-      </c>
-      <c r="G190" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E191" t="s">
-        <v>637</v>
-      </c>
-      <c r="F191" t="s">
-        <v>638</v>
-      </c>
-      <c r="G191" t="s">
-        <v>537</v>
-      </c>
-      <c r="H191">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E192" t="s">
-        <v>639</v>
-      </c>
-      <c r="F192" t="s">
-        <v>640</v>
-      </c>
-      <c r="G192" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="193" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E193" t="s">
-        <v>641</v>
-      </c>
-      <c r="F193" t="s">
-        <v>642</v>
-      </c>
-      <c r="G193" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="194" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E194" t="s">
-        <v>643</v>
-      </c>
-      <c r="F194" t="s">
-        <v>644</v>
-      </c>
-      <c r="G194" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="195" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E195" t="s">
-        <v>645</v>
-      </c>
-      <c r="F195" t="s">
-        <v>646</v>
-      </c>
-      <c r="G195" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="196" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E196" t="s">
-        <v>647</v>
-      </c>
-      <c r="F196" t="s">
-        <v>648</v>
-      </c>
-      <c r="G196" t="s">
-        <v>539</v>
-      </c>
-      <c r="H196">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="197" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E197" t="s">
-        <v>649</v>
-      </c>
-      <c r="F197" t="s">
-        <v>650</v>
-      </c>
-      <c r="G197" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="198" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E198" t="s">
-        <v>651</v>
-      </c>
-      <c r="F198" t="s">
-        <v>652</v>
-      </c>
-      <c r="G198" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="199" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E199" t="s">
-        <v>653</v>
-      </c>
-      <c r="F199" t="s">
-        <v>654</v>
-      </c>
-      <c r="G199" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="200" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E200" t="s">
-        <v>655</v>
-      </c>
-      <c r="F200" t="s">
-        <v>656</v>
-      </c>
-      <c r="G200" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="201" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E201" t="s">
-        <v>657</v>
-      </c>
-      <c r="F201" t="s">
-        <v>658</v>
-      </c>
-      <c r="G201" t="s">
-        <v>502</v>
-      </c>
-      <c r="H201">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="202" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E202" t="s">
-        <v>659</v>
-      </c>
-      <c r="F202" t="s">
-        <v>660</v>
-      </c>
-      <c r="G202" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="203" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E203" t="s">
-        <v>661</v>
-      </c>
-      <c r="F203" t="s">
-        <v>662</v>
-      </c>
-      <c r="G203" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="204" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E204" t="s">
-        <v>663</v>
-      </c>
-      <c r="F204" t="s">
-        <v>664</v>
-      </c>
-      <c r="G204" t="s">
-        <v>510</v>
-      </c>
-      <c r="H204">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="205" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E205" t="s">
-        <v>665</v>
-      </c>
-      <c r="F205" t="s">
-        <v>666</v>
-      </c>
-      <c r="G205" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="206" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E206" t="s">
-        <v>667</v>
-      </c>
-      <c r="F206" t="s">
-        <v>668</v>
-      </c>
-      <c r="G206" t="s">
-        <v>543</v>
-      </c>
-      <c r="H206">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="207" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E207" t="s">
-        <v>669</v>
-      </c>
-      <c r="F207" t="s">
-        <v>670</v>
-      </c>
-      <c r="G207" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="208" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E208" t="s">
-        <v>671</v>
-      </c>
-      <c r="F208" t="s">
-        <v>672</v>
-      </c>
-      <c r="G208" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E209" t="s">
-        <v>673</v>
-      </c>
-      <c r="F209" t="s">
-        <v>674</v>
-      </c>
-      <c r="G209" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E210" t="s">
-        <v>675</v>
-      </c>
-      <c r="F210" t="s">
-        <v>676</v>
-      </c>
-      <c r="G210" t="s">
-        <v>545</v>
-      </c>
-      <c r="H210">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E211" t="s">
-        <v>677</v>
-      </c>
-      <c r="F211" t="s">
-        <v>678</v>
-      </c>
-      <c r="G211" t="s">
-        <v>536</v>
-      </c>
-      <c r="H211">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E212" t="s">
-        <v>679</v>
-      </c>
-      <c r="F212" t="s">
-        <v>680</v>
-      </c>
-      <c r="G212" t="s">
-        <v>504</v>
-      </c>
-      <c r="H212">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E213" t="s">
-        <v>681</v>
-      </c>
-      <c r="F213" t="s">
-        <v>682</v>
-      </c>
-      <c r="G213" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E214" t="s">
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E140" t="s">
         <v>683</v>
       </c>
-      <c r="F214" t="s">
+      <c r="F140" t="s">
         <v>684</v>
       </c>
-      <c r="G214" t="s">
+      <c r="G140" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A216" s="17" t="s">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A142" s="17" t="s">
         <v>688</v>
       </c>
-      <c r="B216" s="17"/>
-      <c r="C216" s="17"/>
-      <c r="D216" s="17"/>
-      <c r="E216" s="17"/>
-      <c r="F216" s="17"/>
-      <c r="G216" s="17"/>
-      <c r="H216" s="16"/>
+      <c r="B142" s="17"/>
+      <c r="C142" s="17"/>
+      <c r="D142" s="17"/>
+      <c r="E142" s="17"/>
+      <c r="F142" s="17"/>
+      <c r="G142" s="17"/>
+      <c r="H142" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="E144:H144"/>
+    <mergeCell ref="E70:H70"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A142:J142"/>
-    <mergeCell ref="A118:J118"/>
-    <mergeCell ref="E134:G134"/>
-    <mergeCell ref="E137:G137"/>
-    <mergeCell ref="E120:H120"/>
+    <mergeCell ref="A68:J68"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="E46:H46"/>
     <mergeCell ref="E29:I29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12797,16 +12797,16 @@
       <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.7109375" customWidth="1"/>
-    <col min="2" max="2" width="48.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" customWidth="1"/>
+    <col min="1" max="1" width="44.7265625" customWidth="1"/>
+    <col min="2" max="2" width="48.1796875" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" customWidth="1"/>
+    <col min="5" max="5" width="31.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="20" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="26" t="s">
         <v>816</v>
       </c>
@@ -12820,8 +12820,8 @@
       <c r="I1" s="26"/>
       <c r="J1" s="26"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="28" t="s">
         <v>817</v>
       </c>
@@ -12835,8 +12835,8 @@
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="30" t="s">
         <v>460</v>
       </c>
@@ -12846,7 +12846,7 @@
       <c r="F5" s="30"/>
       <c r="G5" s="30"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="15">
         <v>18</v>
       </c>
@@ -12866,7 +12866,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="15">
         <v>12</v>
       </c>
@@ -12886,7 +12886,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="15">
         <v>13</v>
       </c>
@@ -12906,7 +12906,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="15">
         <v>10</v>
       </c>
@@ -12926,7 +12926,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="15">
         <v>11</v>
       </c>
@@ -12946,7 +12946,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
         <v>472</v>
       </c>
@@ -12969,7 +12969,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="28" t="s">
         <v>818</v>
       </c>
@@ -12983,8 +12983,8 @@
       <c r="I13" s="28"/>
       <c r="J13" s="28"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="7" t="s">
         <v>463</v>
       </c>
@@ -12995,7 +12995,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B16" s="14" t="s">
         <v>462</v>
       </c>
@@ -13008,32 +13008,32 @@
         <v>1.1760912590556813</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>758</v>
       </c>
@@ -13041,7 +13041,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>756</v>
       </c>
@@ -13049,12 +13049,12 @@
         <v>469</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="28" t="s">
         <v>819</v>
       </c>
@@ -13068,13 +13068,13 @@
       <c r="I25" s="28"/>
       <c r="J25" s="28"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B32" s="7" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="28" t="s">
         <v>820</v>
       </c>
@@ -13088,13 +13088,13 @@
       <c r="I35" s="28"/>
       <c r="J35" s="28"/>
     </row>
-    <row r="36" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B42" s="7" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" s="28" t="s">
         <v>821</v>
       </c>
@@ -13108,18 +13108,18 @@
       <c r="I45" s="28"/>
       <c r="J45" s="28"/>
     </row>
-    <row r="46" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B47" s="7" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B49" s="7" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B51" s="7" t="s">
         <v>475</v>
       </c>
@@ -13148,17 +13148,17 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
-    <col min="8" max="8" width="101.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" customWidth="1"/>
+    <col min="8" max="8" width="101.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="20" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="26" t="s">
         <v>825</v>
       </c>
@@ -13172,8 +13172,8 @@
       <c r="I1" s="26"/>
       <c r="J1" s="26"/>
     </row>
-    <row r="2" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:10" ht="31.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:10" ht="30" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
@@ -13198,7 +13198,7 @@
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -13218,7 +13218,7 @@
         <v>147.76</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -13238,7 +13238,7 @@
         <v>584.54999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -13258,7 +13258,7 @@
         <v>641.28</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -13278,7 +13278,7 @@
         <v>677.01</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -13298,7 +13298,7 @@
         <v>440.04</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -13318,7 +13318,7 @@
         <v>335.77</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -13338,7 +13338,7 @@
         <v>286.7</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -13358,7 +13358,7 @@
         <v>125.77</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -13378,7 +13378,7 @@
         <v>216.18</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -13398,7 +13398,7 @@
         <v>162.02000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -13421,7 +13421,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -13441,7 +13441,7 @@
         <v>740.72</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -13464,7 +13464,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -13484,7 +13484,7 @@
         <v>999.67</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -13507,7 +13507,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -13527,7 +13527,7 @@
         <v>43.26</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -13550,7 +13550,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -13570,7 +13570,7 @@
         <v>270.92</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -13593,7 +13593,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -13613,7 +13613,7 @@
         <v>523.12</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -13633,7 +13633,7 @@
         <v>784.61</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -13658,7 +13658,7 @@
       <c r="I25" s="28"/>
       <c r="J25" s="28"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>60</v>
       </c>
@@ -13678,7 +13678,7 @@
         <v>595.07000000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -13701,7 +13701,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -13721,7 +13721,7 @@
         <v>369.91</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>67</v>
       </c>
@@ -13744,7 +13744,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>69</v>
       </c>
@@ -13764,7 +13764,7 @@
         <v>792.49</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>71</v>
       </c>
@@ -13787,7 +13787,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>73</v>
       </c>
@@ -13807,7 +13807,7 @@
         <v>424.59</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>76</v>
       </c>
@@ -13830,7 +13830,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>78</v>
       </c>
@@ -13850,7 +13850,7 @@
         <v>345.6</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>80</v>
       </c>
@@ -13873,7 +13873,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>82</v>
       </c>
@@ -13893,7 +13893,7 @@
         <v>867.49</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>84</v>
       </c>
@@ -13913,7 +13913,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>86</v>
       </c>
@@ -13933,7 +13933,7 @@
         <v>370.11</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>88</v>
       </c>
@@ -13953,7 +13953,7 @@
         <v>144.99</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>90</v>
       </c>
@@ -13973,7 +13973,7 @@
         <v>369.12</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>92</v>
       </c>
@@ -13993,7 +13993,7 @@
         <v>368.38</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>94</v>
       </c>
@@ -14013,7 +14013,7 @@
         <v>410.79</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>96</v>
       </c>
@@ -14033,7 +14033,7 @@
         <v>600.32000000000005</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>98</v>
       </c>
@@ -14053,7 +14053,7 @@
         <v>30.05</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>100</v>
       </c>
@@ -14073,7 +14073,7 @@
         <v>55.85</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>102</v>
       </c>
@@ -14093,7 +14093,7 @@
         <v>249.31</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>104</v>
       </c>
@@ -14113,7 +14113,7 @@
         <v>229.71</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>106</v>
       </c>
@@ -14133,7 +14133,7 @@
         <v>3.67</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>108</v>
       </c>
@@ -14153,7 +14153,7 @@
         <v>653.58000000000004</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>111</v>
       </c>
@@ -14173,7 +14173,7 @@
         <v>787.79</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>113</v>
       </c>
@@ -14193,7 +14193,7 @@
         <v>555.08000000000004</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>115</v>
       </c>
@@ -14213,7 +14213,7 @@
         <v>983.42</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>117</v>
       </c>
@@ -14233,7 +14233,7 @@
         <v>442.12</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>119</v>
       </c>
@@ -14253,7 +14253,7 @@
         <v>598.58000000000004</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>121</v>
       </c>
@@ -14273,7 +14273,7 @@
         <v>164.5</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>123</v>
       </c>
@@ -14293,7 +14293,7 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>125</v>
       </c>
@@ -14313,7 +14313,7 @@
         <v>65.72</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>127</v>
       </c>
@@ -14333,7 +14333,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>129</v>
       </c>
@@ -14353,7 +14353,7 @@
         <v>762.68</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>131</v>
       </c>
@@ -14373,7 +14373,7 @@
         <v>780.63</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>133</v>
       </c>
@@ -14393,7 +14393,7 @@
         <v>448.3</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>136</v>
       </c>
@@ -14413,7 +14413,7 @@
         <v>128.47</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>138</v>
       </c>
@@ -14433,7 +14433,7 @@
         <v>826.8</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>140</v>
       </c>
@@ -14453,7 +14453,7 @@
         <v>763.78</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>142</v>
       </c>
@@ -14473,7 +14473,7 @@
         <v>410.33</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>144</v>
       </c>
@@ -14493,7 +14493,7 @@
         <v>856.47</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>146</v>
       </c>
@@ -14513,7 +14513,7 @@
         <v>977.14</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>148</v>
       </c>
@@ -14533,7 +14533,7 @@
         <v>25.19</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>150</v>
       </c>
@@ -14553,7 +14553,7 @@
         <v>539.37</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>152</v>
       </c>
@@ -14573,7 +14573,7 @@
         <v>887.02</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>154</v>
       </c>
@@ -14593,7 +14593,7 @@
         <v>612.34</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>156</v>
       </c>
@@ -14613,7 +14613,7 @@
         <v>691.22</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>158</v>
       </c>
@@ -14633,7 +14633,7 @@
         <v>334.55</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>160</v>
       </c>
@@ -14653,7 +14653,7 @@
         <v>272.64</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>162</v>
       </c>
@@ -14673,7 +14673,7 @@
         <v>536.23</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>164</v>
       </c>
@@ -14693,7 +14693,7 @@
         <v>190.98</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>166</v>
       </c>
@@ -14713,7 +14713,7 @@
         <v>693.14</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>168</v>
       </c>
@@ -14733,7 +14733,7 @@
         <v>850.96</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>170</v>
       </c>
@@ -14753,7 +14753,7 @@
         <v>450.16</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>172</v>
       </c>
@@ -14773,7 +14773,7 @@
         <v>944.47</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>174</v>
       </c>
@@ -14793,7 +14793,7 @@
         <v>244.6</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>176</v>
       </c>
@@ -14813,7 +14813,7 @@
         <v>836.45</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>178</v>
       </c>
@@ -14833,7 +14833,7 @@
         <v>400.38</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>180</v>
       </c>
@@ -14853,7 +14853,7 @@
         <v>431.21</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>182</v>
       </c>
@@ -14873,7 +14873,7 @@
         <v>903.11</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>184</v>
       </c>
@@ -14893,7 +14893,7 @@
         <v>192.67</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>186</v>
       </c>
@@ -14913,7 +14913,7 @@
         <v>601.41999999999996</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>188</v>
       </c>
@@ -14933,7 +14933,7 @@
         <v>852.55</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>190</v>
       </c>
@@ -14953,7 +14953,7 @@
         <v>563.04</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>192</v>
       </c>
@@ -14973,7 +14973,7 @@
         <v>609.69000000000005</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>194</v>
       </c>
@@ -14993,7 +14993,7 @@
         <v>216.48</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>196</v>
       </c>
@@ -15013,7 +15013,7 @@
         <v>295.10000000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>198</v>
       </c>
@@ -15033,7 +15033,7 @@
         <v>67.37</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>200</v>
       </c>
@@ -15053,7 +15053,7 @@
         <v>432.8</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>202</v>
       </c>
@@ -15073,7 +15073,7 @@
         <v>58.6</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>204</v>
       </c>
@@ -15093,7 +15093,7 @@
         <v>30.49</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>206</v>
       </c>
@@ -15113,7 +15113,7 @@
         <v>711.63</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>208</v>
       </c>
@@ -15133,7 +15133,7 @@
         <v>542.41999999999996</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>210</v>
       </c>
@@ -15153,7 +15153,7 @@
         <v>408.68</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>212</v>
       </c>
@@ -15173,7 +15173,7 @@
         <v>749.1</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>214</v>
       </c>
@@ -15193,7 +15193,7 @@
         <v>345.86</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>216</v>
       </c>
@@ -15213,7 +15213,7 @@
         <v>639.38</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>218</v>
       </c>
@@ -15233,7 +15233,7 @@
         <v>903.91</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>220</v>
       </c>
@@ -15253,7 +15253,7 @@
         <v>77.53</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>222</v>
       </c>
@@ -15273,7 +15273,7 @@
         <v>525.77</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>224</v>
       </c>
@@ -15293,7 +15293,7 @@
         <v>606.27</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>226</v>
       </c>
@@ -15313,7 +15313,7 @@
         <v>911.84</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>228</v>
       </c>
@@ -15333,7 +15333,7 @@
         <v>795.71</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>230</v>
       </c>
@@ -15353,7 +15353,7 @@
         <v>765.15</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>232</v>
       </c>
@@ -15373,7 +15373,7 @@
         <v>581.5</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>234</v>
       </c>
@@ -15393,7 +15393,7 @@
         <v>385.87</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>236</v>
       </c>
@@ -15413,7 +15413,7 @@
         <v>810.6</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>238</v>
       </c>
@@ -15433,7 +15433,7 @@
         <v>106.09</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>240</v>
       </c>
@@ -15453,7 +15453,7 @@
         <v>567.77</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>242</v>
       </c>
@@ -15473,7 +15473,7 @@
         <v>315.49</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>244</v>
       </c>
@@ -15493,7 +15493,7 @@
         <v>89.01</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>246</v>
       </c>
@@ -15513,7 +15513,7 @@
         <v>527.27</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>248</v>
       </c>
@@ -15533,7 +15533,7 @@
         <v>794.14</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>250</v>
       </c>
@@ -15553,7 +15553,7 @@
         <v>141.80000000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>252</v>
       </c>
@@ -15573,7 +15573,7 @@
         <v>923.55</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>254</v>
       </c>
@@ -15593,7 +15593,7 @@
         <v>412.6</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>256</v>
       </c>
@@ -15613,7 +15613,7 @@
         <v>319.98</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>258</v>
       </c>
@@ -15633,7 +15633,7 @@
         <v>948.21</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>260</v>
       </c>
@@ -15653,7 +15653,7 @@
         <v>794.26</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>262</v>
       </c>
@@ -15673,7 +15673,7 @@
         <v>963.73</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>264</v>
       </c>
@@ -15693,7 +15693,7 @@
         <v>32.1</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>266</v>
       </c>
@@ -15713,7 +15713,7 @@
         <v>432.88</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>268</v>
       </c>
@@ -15733,7 +15733,7 @@
         <v>149.21</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>270</v>
       </c>
@@ -15753,7 +15753,7 @@
         <v>333.99</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>272</v>
       </c>
@@ -15773,7 +15773,7 @@
         <v>325.08</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>274</v>
       </c>
@@ -15793,7 +15793,7 @@
         <v>891.68</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>276</v>
       </c>
@@ -15813,7 +15813,7 @@
         <v>327.92</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>278</v>
       </c>
@@ -15833,7 +15833,7 @@
         <v>151.6</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>280</v>
       </c>
@@ -15853,7 +15853,7 @@
         <v>46.17</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>282</v>
       </c>
@@ -15873,7 +15873,7 @@
         <v>632.91999999999996</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>284</v>
       </c>
@@ -15893,7 +15893,7 @@
         <v>43.01</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>286</v>
       </c>
@@ -15913,7 +15913,7 @@
         <v>383.8</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>288</v>
       </c>
@@ -15933,7 +15933,7 @@
         <v>175.55</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>290</v>
       </c>
@@ -15953,7 +15953,7 @@
         <v>56.91</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>292</v>
       </c>
@@ -15973,7 +15973,7 @@
         <v>963.87</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>294</v>
       </c>
@@ -15993,7 +15993,7 @@
         <v>995.04</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>296</v>
       </c>
@@ -16013,7 +16013,7 @@
         <v>13.78</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>298</v>
       </c>
@@ -16033,7 +16033,7 @@
         <v>67.650000000000006</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>300</v>
       </c>
@@ -16053,7 +16053,7 @@
         <v>415.71</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>302</v>
       </c>
@@ -16073,7 +16073,7 @@
         <v>432.96</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>304</v>
       </c>
@@ -16093,7 +16093,7 @@
         <v>777.59</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>306</v>
       </c>
@@ -16113,7 +16113,7 @@
         <v>758.42</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>308</v>
       </c>
@@ -16133,7 +16133,7 @@
         <v>573.67999999999995</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>310</v>
       </c>
@@ -16153,7 +16153,7 @@
         <v>634.86</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>312</v>
       </c>
@@ -16173,7 +16173,7 @@
         <v>162.01</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>314</v>
       </c>
@@ -16193,7 +16193,7 @@
         <v>820.13</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>316</v>
       </c>
@@ -16213,7 +16213,7 @@
         <v>24.63</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>318</v>
       </c>
@@ -16233,7 +16233,7 @@
         <v>594.85</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>320</v>
       </c>
@@ -16253,7 +16253,7 @@
         <v>526.95000000000005</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>322</v>
       </c>
@@ -16273,7 +16273,7 @@
         <v>606.08000000000004</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>324</v>
       </c>
@@ -16293,7 +16293,7 @@
         <v>636.33000000000004</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>326</v>
       </c>
@@ -16313,7 +16313,7 @@
         <v>357.21</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>328</v>
       </c>
@@ -16333,7 +16333,7 @@
         <v>698.18</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>330</v>
       </c>
@@ -16353,7 +16353,7 @@
         <v>472.98</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>332</v>
       </c>
@@ -16373,7 +16373,7 @@
         <v>301.01</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>334</v>
       </c>
@@ -16393,7 +16393,7 @@
         <v>504.8</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>336</v>
       </c>
@@ -16413,7 +16413,7 @@
         <v>303.17</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>10</v>
       </c>
@@ -16433,7 +16433,7 @@
         <v>434.75</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>339</v>
       </c>
@@ -16453,7 +16453,7 @@
         <v>453.12</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>341</v>
       </c>
@@ -16473,7 +16473,7 @@
         <v>701.46</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>343</v>
       </c>
@@ -16493,7 +16493,7 @@
         <v>151.27000000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>345</v>
       </c>
@@ -16513,7 +16513,7 @@
         <v>949.42</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>347</v>
       </c>
@@ -16533,7 +16533,7 @@
         <v>726.39</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>349</v>
       </c>
@@ -16553,7 +16553,7 @@
         <v>304.81</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>351</v>
       </c>
@@ -16573,7 +16573,7 @@
         <v>339.05</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>353</v>
       </c>
@@ -16593,7 +16593,7 @@
         <v>895.74</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>355</v>
       </c>
@@ -16613,7 +16613,7 @@
         <v>749.34</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>357</v>
       </c>
@@ -16633,7 +16633,7 @@
         <v>428.95</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>359</v>
       </c>
@@ -16653,7 +16653,7 @@
         <v>680.55</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>361</v>
       </c>
@@ -16673,7 +16673,7 @@
         <v>507.36</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>363</v>
       </c>
@@ -16693,7 +16693,7 @@
         <v>124.74</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>365</v>
       </c>
@@ -16713,7 +16713,7 @@
         <v>104.89</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>367</v>
       </c>
@@ -16733,7 +16733,7 @@
         <v>792.57</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>369</v>
       </c>
@@ -16753,7 +16753,7 @@
         <v>216.46</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>371</v>
       </c>
@@ -16773,7 +16773,7 @@
         <v>845.09</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>373</v>
       </c>
@@ -16793,7 +16793,7 @@
         <v>89.62</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>375</v>
       </c>
@@ -16813,7 +16813,7 @@
         <v>212.83</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>377</v>
       </c>
@@ -16833,7 +16833,7 @@
         <v>322.91000000000003</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>379</v>
       </c>
@@ -16853,7 +16853,7 @@
         <v>979.64</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>381</v>
       </c>
@@ -16873,7 +16873,7 @@
         <v>500.49</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>383</v>
       </c>
@@ -16893,7 +16893,7 @@
         <v>347.55</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>385</v>
       </c>
@@ -16913,7 +16913,7 @@
         <v>238.59</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>387</v>
       </c>
@@ -16933,7 +16933,7 @@
         <v>765.14</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>389</v>
       </c>
@@ -16953,7 +16953,7 @@
         <v>117.57</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>391</v>
       </c>
@@ -16973,7 +16973,7 @@
         <v>967.97</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>393</v>
       </c>
@@ -16993,7 +16993,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>395</v>
       </c>
@@ -17013,7 +17013,7 @@
         <v>997.77</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>397</v>
       </c>
@@ -17033,7 +17033,7 @@
         <v>997.26</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>399</v>
       </c>
@@ -17053,7 +17053,7 @@
         <v>136.86000000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>401</v>
       </c>
@@ -17073,7 +17073,7 @@
         <v>83.85</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>403</v>
       </c>
@@ -17093,7 +17093,7 @@
         <v>773.32</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>405</v>
       </c>
@@ -17113,7 +17113,7 @@
         <v>497.44</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>407</v>
       </c>
@@ -17133,7 +17133,7 @@
         <v>911.58</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>409</v>
       </c>
@@ -17153,7 +17153,7 @@
         <v>731.62</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>411</v>
       </c>
@@ -17173,7 +17173,7 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>413</v>
       </c>
@@ -17193,7 +17193,7 @@
         <v>738.65</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>415</v>
       </c>
@@ -17213,7 +17213,7 @@
         <v>518.74</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>417</v>
       </c>
@@ -17253,16 +17253,16 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="55.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" customWidth="1"/>
+    <col min="1" max="1" width="55.81640625" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="3" max="3" width="32.7265625" customWidth="1"/>
+    <col min="4" max="4" width="27.54296875" customWidth="1"/>
+    <col min="5" max="5" width="28.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="20" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="26" t="s">
         <v>831</v>
       </c>
@@ -17276,8 +17276,8 @@
       <c r="I1" s="26"/>
       <c r="J1" s="26"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="28" t="s">
         <v>827</v>
       </c>
@@ -17291,8 +17291,8 @@
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>705</v>
       </c>
@@ -17303,7 +17303,7 @@
       <c r="E5" s="27"/>
       <c r="F5" s="27"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>706</v>
       </c>
@@ -17320,7 +17320,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>707</v>
       </c>
@@ -17331,7 +17331,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>503</v>
       </c>
@@ -17339,7 +17339,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>505</v>
       </c>
@@ -17347,7 +17347,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>507</v>
       </c>
@@ -17355,7 +17355,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
         <v>509</v>
       </c>
@@ -17363,7 +17363,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
         <v>511</v>
       </c>
@@ -17371,7 +17371,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>513</v>
       </c>
@@ -17379,7 +17379,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
         <v>515</v>
       </c>
@@ -17387,7 +17387,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
         <v>516</v>
       </c>
@@ -17395,7 +17395,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
         <v>518</v>
       </c>
@@ -17403,14 +17403,14 @@
         <v>519</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="17" t="s">
         <v>688</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="28" t="s">
         <v>828</v>
       </c>
@@ -17424,8 +17424,8 @@
       <c r="I20" s="28"/>
       <c r="J20" s="28"/>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>826</v>
       </c>
@@ -17436,7 +17436,7 @@
       <c r="E22" s="30"/>
       <c r="F22" s="30"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>742</v>
       </c>
@@ -17453,7 +17453,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>717</v>
       </c>
@@ -17461,7 +17461,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>718</v>
       </c>
@@ -17469,7 +17469,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>719</v>
       </c>
@@ -17477,7 +17477,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>720</v>
       </c>
@@ -17485,7 +17485,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>721</v>
       </c>
@@ -17493,7 +17493,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>722</v>
       </c>
@@ -17501,12 +17501,12 @@
         <v>751</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C30" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
         <v>773</v>
       </c>
@@ -17514,7 +17514,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
         <v>774</v>
       </c>
@@ -17522,12 +17522,12 @@
         <v>752</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="28" t="s">
         <v>829</v>
       </c>
@@ -17541,8 +17541,8 @@
       <c r="I35" s="28"/>
       <c r="J35" s="28"/>
     </row>
-    <row r="36" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>799</v>
       </c>
@@ -17552,7 +17552,7 @@
       <c r="D37" s="30"/>
       <c r="E37" s="30"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>800</v>
       </c>
@@ -17566,7 +17566,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>813</v>
       </c>
@@ -17577,7 +17577,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D40">
         <v>4</v>
       </c>
@@ -17585,7 +17585,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
         <v>812</v>
       </c>
@@ -17596,7 +17596,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
         <v>809</v>
       </c>
@@ -17607,7 +17607,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="8" t="s">
         <v>810</v>
       </c>
@@ -17618,12 +17618,12 @@
         <v>807</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A46" s="28" t="s">
         <v>830</v>
       </c>
@@ -17637,8 +17637,8 @@
       <c r="I46" s="28"/>
       <c r="J46" s="28"/>
     </row>
-    <row r="47" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="23" t="s">
         <v>795</v>
       </c>
@@ -17649,19 +17649,19 @@
         <v>709</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="23" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C50" s="30" t="s">
         <v>739</v>
       </c>
       <c r="D50" s="30"/>
       <c r="E50" s="30"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>781</v>
       </c>
@@ -17675,7 +17675,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>782</v>
       </c>
@@ -17687,7 +17687,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>783</v>
       </c>
@@ -17699,7 +17699,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>784</v>
       </c>
@@ -17711,7 +17711,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D55">
         <f>(LEN(TRIM(E55))+2-LEN(SUBSTITUTE(" "&amp;TRIM(E55)&amp;" "," "&amp;$D$48&amp;" ","")))/(LEN($D$48) + 2)</f>
         <v>3</v>
@@ -17720,7 +17720,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D56">
         <f>(LEN(TRIM(E56))+2-LEN(SUBSTITUTE(" "&amp;TRIM(E56)&amp;" "," "&amp;$D$48&amp;" ","")))/(LEN($D$48) + 2)</f>
         <v>0</v>
@@ -17729,7 +17729,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D57">
         <v>4</v>
       </c>
@@ -17737,7 +17737,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="8" t="s">
         <v>786</v>
       </c>
@@ -17748,7 +17748,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="8" t="s">
         <v>771</v>
       </c>
@@ -17759,42 +17759,42 @@
         <v>792</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="8" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="8" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="8" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="8" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="8" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="24" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="24" t="s">
         <v>798</v>
       </c>
